--- a/data/trans_orig/P14B35-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B35-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1ED995A-1558-4E29-AEBF-FF41DEC02DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70E8BB0B-80E8-4A7C-9769-916A1ED04C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C0CD7D9-0BF2-435A-A5F0-33E04012876C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2755F0E-F4CC-45D3-8336-15D05501FF06}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="159">
   <si>
     <t>Población cuyo dolor menstrual le limita en 2012 (Tasa respuesta: 2,03%)</t>
   </si>
@@ -85,19 +85,19 @@
     <t>38,83%</t>
   </si>
   <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
   </si>
   <si>
     <t>61,17%</t>
   </si>
   <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -112,13 +112,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>48,64%</t>
+    <t>39,71%</t>
   </si>
   <si>
     <t>90,24%</t>
   </si>
   <si>
-    <t>51,36%</t>
+    <t>60,29%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -130,19 +130,19 @@
     <t>35,42%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
   </si>
   <si>
     <t>64,58%</t>
   </si>
   <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -151,19 +151,19 @@
     <t>60,14%</t>
   </si>
   <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
   </si>
   <si>
     <t>39,86%</t>
   </si>
   <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -172,13 +172,19 @@
     <t>15,87%</t>
   </si>
   <si>
-    <t>34,88%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
   </si>
   <si>
     <t>84,13%</t>
   </si>
   <si>
-    <t>65,12%</t>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -187,19 +193,19 @@
     <t>19,62%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
   </si>
   <si>
     <t>80,38%</t>
   </si>
   <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -208,37 +214,37 @@
     <t>38,73%</t>
   </si>
   <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
   </si>
   <si>
     <t>61,27%</t>
   </si>
   <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
   </si>
   <si>
     <t>32,04%</t>
   </si>
   <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
   </si>
   <si>
     <t>67,96%</t>
   </si>
   <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -250,19 +256,19 @@
     <t>44,08%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
   </si>
   <si>
     <t>55,92%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
   </si>
   <si>
     <t>50,65%</t>
@@ -274,13 +280,13 @@
     <t>12,52%</t>
   </si>
   <si>
-    <t>50,27%</t>
+    <t>55,71%</t>
   </si>
   <si>
     <t>87,48%</t>
   </si>
   <si>
-    <t>49,73%</t>
+    <t>44,29%</t>
   </si>
   <si>
     <t>40,01%</t>
@@ -313,19 +319,19 @@
     <t>18,47%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
   </si>
   <si>
     <t>81,53%</t>
   </si>
   <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>24,69%</t>
@@ -343,19 +349,19 @@
     <t>26,2%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
   </si>
   <si>
     <t>73,8%</t>
   </si>
   <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
   </si>
   <si>
     <t>Población cuyo dolor menstrual le limita en 2023 (Tasa respuesta: 2,91%)</t>
@@ -920,7 +926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26599DD3-749F-4EBD-9E13-BA28FFED5252}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F04224E-300D-4E31-9363-A434C630CBEC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1793,10 +1799,10 @@
         <v>43</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -1808,10 +1814,10 @@
         <v>43</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,13 +1845,13 @@
         <v>16168</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -1854,13 +1860,13 @@
         <v>16168</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1914,7 +1920,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1939,13 +1945,13 @@
         <v>5047</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -1954,13 +1960,13 @@
         <v>5047</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,13 +1994,13 @@
         <v>20679</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -2003,13 +2009,13 @@
         <v>20679</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,7 +2069,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2088,13 +2094,13 @@
         <v>5238</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2103,13 +2109,13 @@
         <v>5238</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,13 +2143,13 @@
         <v>8288</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -2152,13 +2158,13 @@
         <v>8288</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2243,13 @@
         <v>43706</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M28" s="7">
         <v>42</v>
@@ -2252,13 +2258,13 @@
         <v>43706</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,13 +2292,13 @@
         <v>92706</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M29" s="7">
         <v>90</v>
@@ -2301,13 +2307,13 @@
         <v>92706</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,7 +2367,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2385,7 +2391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D0891C-4D01-43A8-A984-68E82259A080}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74D1147-1345-475E-8AFA-37BD27FA2D59}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2402,7 +2408,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2522,13 +2528,13 @@
         <v>2785</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2537,13 +2543,13 @@
         <v>2785</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,13 +2577,13 @@
         <v>3534</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2586,13 +2592,13 @@
         <v>3534</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,7 +2677,7 @@
         <v>1989</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>23</v>
@@ -2686,7 +2692,7 @@
         <v>1989</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>23</v>
@@ -2720,7 +2726,7 @@
         <v>1938</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>23</v>
@@ -2735,7 +2741,7 @@
         <v>1938</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>23</v>
@@ -2820,13 +2826,13 @@
         <v>920</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2835,13 +2841,13 @@
         <v>920</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,10 +2875,10 @@
         <v>6423</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>27</v>
@@ -2884,10 +2890,10 @@
         <v>6423</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>27</v>
@@ -2969,13 +2975,13 @@
         <v>1879</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2984,13 +2990,13 @@
         <v>1879</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,10 +3024,10 @@
         <v>2819</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>27</v>
@@ -3033,10 +3039,10 @@
         <v>2819</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>27</v>
@@ -3118,7 +3124,7 @@
         <v>2066</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>23</v>
@@ -3133,7 +3139,7 @@
         <v>2066</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>23</v>
@@ -3167,7 +3173,7 @@
         <v>1808</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>23</v>
@@ -3182,7 +3188,7 @@
         <v>1808</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>23</v>
@@ -3270,10 +3276,10 @@
         <v>23</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3285,10 +3291,10 @@
         <v>23</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,7 +3325,7 @@
         <v>27</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>20</v>
@@ -3334,7 +3340,7 @@
         <v>27</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>20</v>
@@ -3391,7 +3397,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3416,13 +3422,13 @@
         <v>5781</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -3431,13 +3437,13 @@
         <v>5781</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3471,13 @@
         <v>25519</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -3480,13 +3486,13 @@
         <v>25519</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,7 +3546,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3565,13 +3571,13 @@
         <v>1977</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -3580,13 +3586,13 @@
         <v>1977</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,10 +3620,10 @@
         <v>6030</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>27</v>
@@ -3629,10 +3635,10 @@
         <v>6030</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>27</v>
@@ -3714,13 +3720,13 @@
         <v>17396</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -3729,13 +3735,13 @@
         <v>17396</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3769,13 @@
         <v>48992</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M29" s="7">
         <v>49</v>
@@ -3778,13 +3784,13 @@
         <v>48992</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,7 +3844,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3862,7 +3868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1B1FF2-5320-4979-8064-65B549249656}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981B2EE6-11F0-4104-867E-EECF4EC5F959}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3879,7 +3885,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4002,7 +4008,7 @@
         <v>27</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>20</v>
@@ -4017,7 +4023,7 @@
         <v>27</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>20</v>
@@ -4051,10 +4057,10 @@
         <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4066,10 +4072,10 @@
         <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4154,13 @@
         <v>18656</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -4163,13 +4169,13 @@
         <v>18656</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,13 +4203,13 @@
         <v>14723</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -4212,13 +4218,13 @@
         <v>14723</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4303,13 @@
         <v>7962</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -4312,13 +4318,13 @@
         <v>7962</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,13 +4352,13 @@
         <v>2957</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -4361,13 +4367,13 @@
         <v>2957</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4452,13 @@
         <v>11861</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -4461,13 +4467,13 @@
         <v>11861</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4501,13 @@
         <v>18556</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -4510,13 +4516,13 @@
         <v>18556</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,13 +4601,13 @@
         <v>5671</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -4610,13 +4616,13 @@
         <v>5671</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4650,13 @@
         <v>14465</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -4659,13 +4665,13 @@
         <v>14465</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4750,13 @@
         <v>7666</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -4759,13 +4765,13 @@
         <v>7666</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4799,13 @@
         <v>5204</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -4808,13 +4814,13 @@
         <v>5204</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,7 +4874,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4893,13 +4899,13 @@
         <v>50266</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>55</v>
@@ -4908,13 +4914,13 @@
         <v>50266</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,13 +4948,13 @@
         <v>50965</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>62</v>
@@ -4957,13 +4963,13 @@
         <v>50965</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,7 +5023,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5042,13 +5048,13 @@
         <v>9198</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -5057,13 +5063,13 @@
         <v>9198</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,13 +5097,13 @@
         <v>8881</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -5106,13 +5112,13 @@
         <v>8881</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5197,13 @@
         <v>112382</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M28" s="7">
         <v>122</v>
@@ -5206,13 +5212,13 @@
         <v>112382</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,13 +5246,13 @@
         <v>115753</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M29" s="7">
         <v>132</v>
@@ -5255,13 +5261,13 @@
         <v>115753</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,7 +5321,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B35-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B35-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70E8BB0B-80E8-4A7C-9769-916A1ED04C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15B251E6-8FD4-4579-9004-541AC2685A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2755F0E-F4CC-45D3-8336-15D05501FF06}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{689DEFE6-65D5-407B-8BC8-8C9114DBC290}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="157">
   <si>
     <t>Población cuyo dolor menstrual le limita en 2012 (Tasa respuesta: 2,03%)</t>
   </si>
@@ -85,19 +85,19 @@
     <t>38,83%</t>
   </si>
   <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
   </si>
   <si>
     <t>61,17%</t>
   </si>
   <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -112,13 +112,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>39,71%</t>
+    <t>39,75%</t>
   </si>
   <si>
     <t>90,24%</t>
   </si>
   <si>
-    <t>60,29%</t>
+    <t>60,25%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -130,19 +130,19 @@
     <t>35,42%</t>
   </si>
   <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
   </si>
   <si>
     <t>64,58%</t>
   </si>
   <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -151,19 +151,19 @@
     <t>60,14%</t>
   </si>
   <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
   </si>
   <si>
     <t>39,86%</t>
   </si>
   <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -172,19 +172,19 @@
     <t>15,87%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
   </si>
   <si>
     <t>84,13%</t>
   </si>
   <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -193,19 +193,19 @@
     <t>19,62%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
   </si>
   <si>
     <t>80,38%</t>
   </si>
   <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -214,61 +214,61 @@
     <t>38,73%</t>
   </si>
   <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
   </si>
   <si>
     <t>61,27%</t>
   </si>
   <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
   </si>
   <si>
     <t>32,04%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>67,96%</t>
   </si>
   <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo dolor menstrual le limita en 2015 (Tasa respuesta: 1,02%)</t>
+    <t>Población cuyo dolor menstrual le limita en 2016 (Tasa respuesta: 1,02%)</t>
   </si>
   <si>
     <t>44,08%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
   </si>
   <si>
     <t>55,92%</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
   </si>
   <si>
     <t>50,65%</t>
@@ -280,13 +280,13 @@
     <t>12,52%</t>
   </si>
   <si>
-    <t>55,71%</t>
+    <t>50,37%</t>
   </si>
   <si>
     <t>87,48%</t>
   </si>
   <si>
-    <t>44,29%</t>
+    <t>49,63%</t>
   </si>
   <si>
     <t>40,01%</t>
@@ -319,49 +319,43 @@
     <t>18,47%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
+    <t>37,04%</t>
   </si>
   <si>
     <t>81,53%</t>
   </si>
   <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>62,96%</t>
   </si>
   <si>
     <t>24,69%</t>
   </si>
   <si>
-    <t>62,21%</t>
+    <t>62,05%</t>
   </si>
   <si>
     <t>75,31%</t>
   </si>
   <si>
-    <t>37,79%</t>
+    <t>37,95%</t>
   </si>
   <si>
     <t>26,2%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
   </si>
   <si>
     <t>73,8%</t>
   </si>
   <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
   </si>
   <si>
     <t>Población cuyo dolor menstrual le limita en 2023 (Tasa respuesta: 2,91%)</t>
@@ -376,145 +370,145 @@
     <t>55,89%</t>
   </si>
   <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
   </si>
   <si>
     <t>44,11%</t>
   </si>
   <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
   </si>
   <si>
     <t>72,92%</t>
   </si>
   <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>27,08%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
   </si>
   <si>
     <t>38,99%</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>61,01%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
   </si>
   <si>
     <t>28,16%</t>
   </si>
   <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
   </si>
   <si>
     <t>71,84%</t>
   </si>
   <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
   </si>
   <si>
     <t>59,56%</t>
   </si>
   <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
   </si>
   <si>
     <t>40,44%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
   </si>
   <si>
     <t>49,66%</t>
   </si>
   <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
   </si>
   <si>
     <t>50,34%</t>
   </si>
   <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
   </si>
   <si>
     <t>50,88%</t>
   </si>
   <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
   </si>
   <si>
     <t>49,12%</t>
   </si>
   <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
   </si>
   <si>
     <t>49,26%</t>
   </si>
   <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
   </si>
   <si>
     <t>50,74%</t>
   </si>
   <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
   </si>
 </sst>
 </file>
@@ -926,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F04224E-300D-4E31-9363-A434C630CBEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6852459C-2E78-40AF-B316-3D3473D1F849}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2391,7 +2385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74D1147-1345-475E-8AFA-37BD27FA2D59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AFAFB5-A27E-4921-9812-D1C5752B2C7C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3425,10 +3419,10 @@
         <v>92</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -3440,10 +3434,10 @@
         <v>92</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3465,13 @@
         <v>25519</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -3486,13 +3480,13 @@
         <v>25519</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3565,13 @@
         <v>1977</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -3586,13 +3580,13 @@
         <v>1977</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,10 +3614,10 @@
         <v>6030</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>27</v>
@@ -3635,10 +3629,10 @@
         <v>6030</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>27</v>
@@ -3720,13 +3714,13 @@
         <v>17396</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -3735,13 +3729,13 @@
         <v>17396</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3763,13 @@
         <v>48992</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M29" s="7">
         <v>49</v>
@@ -3784,13 +3778,13 @@
         <v>48992</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,7 +3862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981B2EE6-11F0-4104-867E-EECF4EC5F959}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904F213F-5856-45DA-8994-17A8041EE304}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3885,7 +3879,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4008,7 +4002,7 @@
         <v>27</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>20</v>
@@ -4023,7 +4017,7 @@
         <v>27</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>20</v>
@@ -4060,7 +4054,7 @@
         <v>89</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4075,7 +4069,7 @@
         <v>89</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4148,13 @@
         <v>18656</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -4169,13 +4163,13 @@
         <v>18656</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4197,13 @@
         <v>14723</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -4218,13 +4212,13 @@
         <v>14723</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4297,13 @@
         <v>7962</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -4318,13 +4312,13 @@
         <v>7962</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,13 +4346,13 @@
         <v>2957</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -4367,13 +4361,13 @@
         <v>2957</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4446,13 @@
         <v>11861</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -4467,13 +4461,13 @@
         <v>11861</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4495,13 @@
         <v>18556</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -4516,13 +4510,13 @@
         <v>18556</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4595,13 @@
         <v>5671</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -4616,13 +4610,13 @@
         <v>5671</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4644,13 @@
         <v>14465</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -4665,13 +4659,13 @@
         <v>14465</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4744,13 @@
         <v>7666</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -4765,13 +4759,13 @@
         <v>7666</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4793,13 @@
         <v>5204</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -4814,13 +4808,13 @@
         <v>5204</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4893,13 @@
         <v>50266</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>55</v>
@@ -4914,13 +4908,13 @@
         <v>50266</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +4942,13 @@
         <v>50965</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>62</v>
@@ -4963,13 +4957,13 @@
         <v>50965</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +5042,13 @@
         <v>9198</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -5063,13 +5057,13 @@
         <v>9198</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5091,13 @@
         <v>8881</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -5112,13 +5106,13 @@
         <v>8881</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5191,13 @@
         <v>112382</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M28" s="7">
         <v>122</v>
@@ -5212,13 +5206,13 @@
         <v>112382</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,13 +5240,13 @@
         <v>115753</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M29" s="7">
         <v>132</v>
@@ -5261,13 +5255,13 @@
         <v>115753</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
